--- a/biology/Origine et évolution du vivant/Vendien/Vendien.xlsx
+++ b/biology/Origine et évolution du vivant/Vendien/Vendien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Vendien est un étage géologique informel regroupant le Varangien et l'Édiacarien. Sous cette acception, il s'étend alors de -650 à -542 Ma.
 Mais ce terme peut aussi désigner les deux glaciations de Moelv et Mortenses, visibles en Norvège et il fut également proposé en 2005 pour dénommer toute la partie supérieure de l'Édiacarien, de -582,1 Ma à -542,6 Ma.
